--- a/input_files/O16_RMF.xlsx
+++ b/input_files/O16_RMF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dima/Projects/Light-Front Mean Field Theory/Runge-Kutta Method/input_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB980500-198F-ED45-A338-AFE8D71D6F25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6385EA1-61C4-A24B-BFA4-B933A3A2F6C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1420" yWindow="2480" windowWidth="28800" windowHeight="15640" xr2:uid="{178560A9-F361-274A-AB9D-3DA0C106A5E5}"/>
+    <workbookView xWindow="5940" yWindow="2660" windowWidth="28800" windowHeight="15640" activeTab="3" xr2:uid="{178560A9-F361-274A-AB9D-3DA0C106A5E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -478,7 +478,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F9A6784-E59C-C844-8BF2-222A93D550FE}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -529,15 +529,15 @@
         <v>770</v>
       </c>
       <c r="E2">
-        <f>0.0000001</f>
-        <v>9.9999999999999995E-8</v>
+        <f>0.04</f>
+        <v>0.04</v>
       </c>
       <c r="F2">
         <f>12</f>
         <v>12</v>
       </c>
       <c r="G2">
-        <v>600</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -550,7 +550,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -589,12 +589,12 @@
         <v>410</v>
       </c>
       <c r="C2">
-        <f>SQRT(109.6)</f>
-        <v>10.469001862641921</v>
+        <f>SQRT(109.6264)</f>
+        <v>10.470262651910888</v>
       </c>
       <c r="D2">
-        <f>SQRT(190.4)</f>
-        <v>13.798550648528272</v>
+        <f>SQRT(190.4306)</f>
+        <v>13.799659416087051</v>
       </c>
       <c r="E2">
         <v>3.6</v>
@@ -717,7 +717,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF253CE-956B-B040-8027-78DFB140BDDF}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>

--- a/input_files/O16_RMF.xlsx
+++ b/input_files/O16_RMF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dima/Projects/Light-Front Mean Field Theory/Runge-Kutta Method/input_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6385EA1-61C4-A24B-BFA4-B933A3A2F6C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B264D2F0-A36A-A641-8379-136CDDE54840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5940" yWindow="2660" windowWidth="28800" windowHeight="15640" activeTab="3" xr2:uid="{178560A9-F361-274A-AB9D-3DA0C106A5E5}"/>
+    <workbookView xWindow="5940" yWindow="2660" windowWidth="28800" windowHeight="15640" activeTab="1" xr2:uid="{178560A9-F361-274A-AB9D-3DA0C106A5E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>R_MIN [FM]</t>
   </si>
@@ -105,6 +105,18 @@
   </si>
   <si>
     <t>VECTOR COUPLING</t>
+  </si>
+  <si>
+    <t>RHO STRENGTH [MEV]</t>
+  </si>
+  <si>
+    <t>RHO COUPLING</t>
+  </si>
+  <si>
+    <t>COULOMB STRENGTH [MEV]</t>
+  </si>
+  <si>
+    <t>COULOMBCOUPLING</t>
   </si>
 </sst>
 </file>
@@ -479,7 +491,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -537,7 +549,7 @@
         <v>12</v>
       </c>
       <c r="G2">
-        <v>300</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -547,59 +559,91 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{603E9AEF-BC4E-8547-A3F8-1FD6EEDF1358}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.1640625" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
     <col min="4" max="4" width="19.5" customWidth="1"/>
+    <col min="5" max="5" width="18.5" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" customWidth="1"/>
+    <col min="7" max="7" width="26.33203125" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="9" max="9" width="12.5" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>16</v>
       </c>
       <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
         <v>17</v>
-      </c>
-      <c r="C1" t="s">
-        <v>20</v>
       </c>
       <c r="D1" t="s">
         <v>21</v>
       </c>
       <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>465</v>
       </c>
       <c r="B2">
-        <v>410</v>
-      </c>
-      <c r="C2">
         <f>SQRT(109.6264)</f>
         <v>10.470262651910888</v>
+      </c>
+      <c r="C2">
+        <v>410</v>
       </c>
       <c r="D2">
         <f>SQRT(190.4306)</f>
         <v>13.799659416087051</v>
       </c>
       <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>SQRT(65.226)</f>
+        <v>8.0762615113677434</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>SQRT(0.091701)</f>
+        <v>0.30282172973549965</v>
+      </c>
+      <c r="I2">
         <v>3.6</v>
       </c>
-      <c r="F2">
+      <c r="J2">
         <v>0.4</v>
       </c>
     </row>
@@ -717,7 +761,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF253CE-956B-B040-8027-78DFB140BDDF}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>

--- a/input_files/O16_RMF.xlsx
+++ b/input_files/O16_RMF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dima/Projects/Light-Front Mean Field Theory/Runge-Kutta Method/input_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B264D2F0-A36A-A641-8379-136CDDE54840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC63950-FEFE-854B-B206-5584B0C52EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5940" yWindow="2660" windowWidth="28800" windowHeight="15640" activeTab="1" xr2:uid="{178560A9-F361-274A-AB9D-3DA0C106A5E5}"/>
+    <workbookView xWindow="5940" yWindow="2660" windowWidth="28800" windowHeight="15640" activeTab="3" xr2:uid="{178560A9-F361-274A-AB9D-3DA0C106A5E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -116,7 +116,7 @@
     <t>COULOMB STRENGTH [MEV]</t>
   </si>
   <si>
-    <t>COULOMBCOUPLING</t>
+    <t>COULOMB COUPLING</t>
   </si>
 </sst>
 </file>
@@ -491,7 +491,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -561,8 +561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{603E9AEF-BC4E-8547-A3F8-1FD6EEDF1358}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -657,7 +657,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F2" sqref="F2:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -705,7 +705,7 @@
         <v>4</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -727,7 +727,7 @@
         <v>4</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -749,7 +749,7 @@
         <v>4</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -761,8 +761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF253CE-956B-B040-8027-78DFB140BDDF}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -807,7 +807,7 @@
         <v>4</v>
       </c>
       <c r="F2">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -829,7 +829,7 @@
         <v>4</v>
       </c>
       <c r="F3">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -851,7 +851,7 @@
         <v>4</v>
       </c>
       <c r="F4">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
   </sheetData>

--- a/input_files/O16_RMF.xlsx
+++ b/input_files/O16_RMF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dima/Projects/Light-Front Mean Field Theory/Runge-Kutta Method/input_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC63950-FEFE-854B-B206-5584B0C52EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8314190-E83A-1645-B690-31A86C82630E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5940" yWindow="2660" windowWidth="28800" windowHeight="15640" activeTab="3" xr2:uid="{178560A9-F361-274A-AB9D-3DA0C106A5E5}"/>
   </bookViews>
@@ -491,7 +491,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -549,7 +549,7 @@
         <v>12</v>
       </c>
       <c r="G2">
-        <v>150</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -657,7 +657,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F4"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -695,14 +695,14 @@
         <v>-1</v>
       </c>
       <c r="C2">
-        <f>880</f>
-        <v>880</v>
+        <f>890</f>
+        <v>890</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>0.5</v>
@@ -724,7 +724,7 @@
         <v>11</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>0.5</v>
@@ -746,7 +746,7 @@
         <v>9</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>0.5</v>
@@ -762,7 +762,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -797,14 +797,14 @@
         <v>-1</v>
       </c>
       <c r="C2">
-        <f>880</f>
-        <v>880</v>
+        <f>890</f>
+        <v>890</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>-0.5</v>
@@ -826,7 +826,7 @@
         <v>11</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>-0.5</v>
@@ -848,7 +848,7 @@
         <v>9</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>-0.5</v>
